--- a/2011_data/2011 indian springs_checked.xlsx
+++ b/2011_data/2011 indian springs_checked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/perry_1864_osu_edu/Documents/Documents/Perry Lab/Emerald Ash Borer Projects/2011 MI EAB Microplots_Wendy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/2011_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D53B4EAA44B492CC0C46A2486F2505CA2204E38E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859420FA-8961-4901-87A9-129D0F0FF6D2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D53B4EAA44B492CC0C46A2486F2505CA2204E38E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0CC263A-3BBB-47ED-B2AD-220B9F6FFF01}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quads.all" sheetId="7" r:id="rId1"/>
@@ -1195,7 +1195,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1335,6 +1341,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,9 +1362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1393,9 +1402,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,26 +1437,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,26 +1472,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1682,20 +1657,20 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="31" width="9.140625" style="1"/>
-    <col min="32" max="36" width="9.140625" style="9" customWidth="1"/>
-    <col min="38" max="38" width="29.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" hidden="1" customWidth="1"/>
+    <col min="8" max="31" width="9.1796875" style="1"/>
+    <col min="32" max="36" width="9.1796875" style="9" customWidth="1"/>
+    <col min="38" max="38" width="29.26953125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1737,7 @@
       <c r="AJ1"/>
       <c r="AL1" s="29"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1829,7 +1804,7 @@
       <c r="AJ2"/>
       <c r="AL2" s="29"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C3" s="17"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -1850,7 +1825,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -1884,7 +1859,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +1975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -2120,7 +2095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -2237,7 +2212,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -2354,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -2471,7 +2446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -2588,7 +2563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -2705,7 +2680,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -2822,7 +2797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -2939,7 +2914,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -3056,7 +3031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -3176,7 +3151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -3293,7 +3268,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -3413,7 +3388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -3533,7 +3508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -3650,7 +3625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -3767,7 +3742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -3884,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -4001,7 +3976,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -4118,7 +4093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -4238,7 +4213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -4355,7 +4330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -4472,7 +4447,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -4589,7 +4564,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -4706,7 +4681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -4823,7 +4798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011</v>
       </c>
@@ -4940,7 +4915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -5057,7 +5032,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -5174,7 +5149,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -5291,7 +5266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -5408,7 +5383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -5525,7 +5500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -5642,7 +5617,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -5759,7 +5734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -5876,7 +5851,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -5993,7 +5968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -6113,7 +6088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -6230,7 +6205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -6350,7 +6325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -6467,7 +6442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -6587,7 +6562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -6704,7 +6679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -6821,7 +6796,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -6941,7 +6916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -7058,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -7175,7 +7150,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -7295,7 +7270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -7412,7 +7387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -7529,7 +7504,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -7646,7 +7621,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
@@ -7763,7 +7738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -7883,7 +7858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -8000,7 +7975,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -8117,7 +8092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -8234,7 +8209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -8351,7 +8326,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -8468,7 +8443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -8585,7 +8560,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -8702,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -8819,7 +8794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -8936,7 +8911,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -9056,7 +9031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -9173,7 +9148,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -9290,7 +9265,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -9407,7 +9382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -9527,7 +9502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -9644,7 +9619,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -9761,7 +9736,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -9878,7 +9853,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -9995,7 +9970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -10115,7 +10090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -10232,7 +10207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -10349,7 +10324,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -10466,7 +10441,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -10586,7 +10561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -10703,7 +10678,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2011</v>
       </c>
@@ -10820,7 +10795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2011</v>
       </c>
@@ -10937,7 +10912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -11054,7 +11029,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2011</v>
       </c>
@@ -11171,7 +11146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -11291,7 +11266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2011</v>
       </c>
@@ -11408,7 +11383,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2011</v>
       </c>
@@ -11528,7 +11503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2011</v>
       </c>
@@ -11645,7 +11620,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2011</v>
       </c>
@@ -11762,7 +11737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -11879,7 +11854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2011</v>
       </c>
@@ -11996,7 +11971,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2011</v>
       </c>
@@ -12113,7 +12088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2011</v>
       </c>
@@ -12230,7 +12205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2011</v>
       </c>
@@ -12347,7 +12322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2011</v>
       </c>
@@ -12464,7 +12439,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2011</v>
       </c>
@@ -12581,31 +12556,31 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B96" s="21"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="21"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="21"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="21"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="21"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="21"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="21"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="21"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="21"/>
     </row>
   </sheetData>
@@ -12625,18 +12600,18 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
@@ -12665,7 +12640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -12692,7 +12667,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -12718,7 +12693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -12744,7 +12719,7 @@
         <v>7692</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -12773,7 +12748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -12802,7 +12777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -12828,7 +12803,7 @@
         <v>7699</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -12855,7 +12830,7 @@
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -12884,7 +12859,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -12913,7 +12888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -12939,7 +12914,7 @@
         <v>7683</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12966,7 +12941,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -12992,7 +12967,7 @@
         <v>7686</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -13019,7 +12994,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -13045,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -13074,7 +13049,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -13100,7 +13075,7 @@
         <v>7672</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -13129,7 +13104,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -13158,7 +13133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -13184,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -13210,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -13236,7 +13211,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -13262,7 +13237,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -13288,7 +13263,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -13314,7 +13289,7 @@
         <v>7866</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -13340,7 +13315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -13366,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011</v>
       </c>
@@ -13392,7 +13367,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -13418,7 +13393,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -13444,7 +13419,7 @@
         <v>7903</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -13470,7 +13445,7 @@
         <v>7904</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -13496,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -13522,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -13548,7 +13523,7 @@
         <v>7889</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -13574,7 +13549,7 @@
         <v>7890</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -13600,7 +13575,7 @@
         <v>7891</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -13626,7 +13601,7 @@
         <v>7892</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -13653,7 +13628,7 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -13679,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -13705,7 +13680,7 @@
         <v>7723</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -13731,7 +13706,7 @@
         <v>7724</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -13757,7 +13732,7 @@
         <v>7725</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -13783,7 +13758,7 @@
         <v>7726</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -13810,7 +13785,7 @@
       </c>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -13836,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -13862,7 +13837,7 @@
         <v>7728</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -13888,7 +13863,7 @@
         <v>7729</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -13914,7 +13889,7 @@
         <v>7730</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -13940,7 +13915,7 @@
         <v>7731</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -13967,7 +13942,7 @@
       </c>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -13996,7 +13971,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
@@ -14022,7 +13997,7 @@
         <v>7713</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -14048,7 +14023,7 @@
         <v>7714</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -14074,7 +14049,7 @@
         <v>7715</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -14100,7 +14075,7 @@
         <v>7716</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -14129,7 +14104,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -14158,7 +14133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -14184,7 +14159,7 @@
         <v>7857</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -14210,7 +14185,7 @@
         <v>7858</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -14236,7 +14211,7 @@
         <v>7859</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -14262,7 +14237,7 @@
         <v>7860</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -14288,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -14314,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -14340,7 +14315,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -14366,7 +14341,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -14392,7 +14367,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -14418,7 +14393,7 @@
         <v>7842</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -14444,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -14470,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -14496,7 +14471,7 @@
         <v>7828</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -14522,7 +14497,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -14548,7 +14523,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -14574,7 +14549,7 @@
         <v>7831</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -14601,7 +14576,7 @@
       </c>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -14627,7 +14602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -14653,7 +14628,7 @@
         <v>7357</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -14679,7 +14654,7 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2011</v>
       </c>
@@ -14705,7 +14680,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2011</v>
       </c>
@@ -14731,7 +14706,7 @@
         <v>7360</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -14758,7 +14733,7 @@
       </c>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2011</v>
       </c>
@@ -14784,7 +14759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -14810,7 +14785,7 @@
         <v>7387</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2011</v>
       </c>
@@ -14836,7 +14811,7 @@
         <v>7389</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2011</v>
       </c>
@@ -14862,7 +14837,7 @@
         <v>7390</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2011</v>
       </c>
@@ -14888,7 +14863,7 @@
         <v>7391</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2011</v>
       </c>
@@ -14915,7 +14890,7 @@
       </c>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -14941,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2011</v>
       </c>
@@ -14967,7 +14942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2011</v>
       </c>
@@ -14993,7 +14968,7 @@
         <v>7365</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2011</v>
       </c>
@@ -15019,7 +14994,7 @@
         <v>7372</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2011</v>
       </c>
@@ -15045,7 +15020,7 @@
         <v>7381</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2011</v>
       </c>
@@ -15072,7 +15047,7 @@
       </c>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2011</v>
       </c>
@@ -15098,7 +15073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2011</v>
       </c>
@@ -15124,7 +15099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2011</v>
       </c>
@@ -15150,7 +15125,7 @@
         <v>7330</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2011</v>
       </c>
@@ -15176,7 +15151,7 @@
         <v>7331</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2011</v>
       </c>
@@ -15202,7 +15177,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2011</v>
       </c>
@@ -15229,7 +15204,7 @@
       </c>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2011</v>
       </c>
@@ -15255,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2011</v>
       </c>
@@ -15284,7 +15259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2011</v>
       </c>
@@ -15311,7 +15286,7 @@
       </c>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2011</v>
       </c>
@@ -15337,7 +15312,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2011</v>
       </c>
@@ -15363,7 +15338,7 @@
         <v>7321</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2011</v>
       </c>
@@ -15391,7 +15366,7 @@
       <c r="I106" s="21"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2011</v>
       </c>
@@ -15417,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2011</v>
       </c>
@@ -15443,7 +15418,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2011</v>
       </c>
@@ -15469,7 +15444,7 @@
         <v>7341</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2011</v>
       </c>
@@ -15495,7 +15470,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2011</v>
       </c>
@@ -15521,7 +15496,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2011</v>
       </c>
@@ -15548,7 +15523,7 @@
       </c>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2011</v>
       </c>
@@ -15574,7 +15549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2011</v>
       </c>
@@ -15601,7 +15576,7 @@
       </c>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2011</v>
       </c>
@@ -15627,7 +15602,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2011</v>
       </c>
@@ -15653,7 +15628,7 @@
         <v>7286</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2011</v>
       </c>
@@ -15679,7 +15654,7 @@
         <v>7287</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2011</v>
       </c>
@@ -15706,7 +15681,7 @@
       </c>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2011</v>
       </c>
@@ -15732,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2011</v>
       </c>
@@ -15758,7 +15733,7 @@
         <v>7294</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2011</v>
       </c>
@@ -15784,7 +15759,7 @@
         <v>7295</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2011</v>
       </c>
@@ -15810,7 +15785,7 @@
         <v>7296</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2011</v>
       </c>
@@ -15837,7 +15812,7 @@
       </c>
       <c r="I123" s="21"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2011</v>
       </c>
@@ -15864,7 +15839,7 @@
       </c>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2011</v>
       </c>
@@ -15890,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2011</v>
       </c>
@@ -15916,7 +15891,7 @@
         <v>7303</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2011</v>
       </c>
@@ -15942,7 +15917,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2011</v>
       </c>
@@ -15968,7 +15943,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2011</v>
       </c>
@@ -15994,7 +15969,7 @@
         <v>7306</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2011</v>
       </c>
@@ -16021,7 +15996,7 @@
       </c>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2011</v>
       </c>
@@ -16047,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2011</v>
       </c>
@@ -16073,7 +16048,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2011</v>
       </c>
@@ -16099,7 +16074,7 @@
         <v>7610</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2011</v>
       </c>
@@ -16125,7 +16100,7 @@
         <v>7611</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2011</v>
       </c>
@@ -16151,7 +16126,7 @@
         <v>7612</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2011</v>
       </c>
@@ -16181,7 +16156,7 @@
       </c>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2011</v>
       </c>
@@ -16210,7 +16185,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2011</v>
       </c>
@@ -16236,7 +16211,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2011</v>
       </c>
@@ -16262,7 +16237,7 @@
         <v>7659</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2011</v>
       </c>
@@ -16291,7 +16266,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2011</v>
       </c>
@@ -16320,7 +16295,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2011</v>
       </c>
@@ -16347,7 +16322,7 @@
       </c>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2011</v>
       </c>
@@ -16373,7 +16348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2011</v>
       </c>
@@ -16399,7 +16374,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2011</v>
       </c>
@@ -16425,7 +16400,7 @@
         <v>7621</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2011</v>
       </c>
@@ -16451,7 +16426,7 @@
         <v>7622</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2011</v>
       </c>
@@ -16494,14 +16469,14 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
@@ -16515,7 +16490,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>170</v>
       </c>
@@ -16529,7 +16504,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -16540,7 +16515,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
@@ -16581,7 +16556,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -16622,7 +16597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -16663,7 +16638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -16704,7 +16679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -16745,7 +16720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -16786,7 +16761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -16827,7 +16802,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -16868,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -16909,7 +16884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -16950,7 +16925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -16991,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -17032,7 +17007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -17073,7 +17048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -17114,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -17155,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -17196,7 +17171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -17237,7 +17212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -17278,7 +17253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -17319,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -17360,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -17401,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -17442,7 +17417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -17483,7 +17458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -17524,7 +17499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -17565,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -17606,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011</v>
       </c>
@@ -17647,7 +17622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -17688,7 +17663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -17729,7 +17704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -17770,7 +17745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -17811,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -17852,7 +17827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -17893,7 +17868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -17934,7 +17909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -17975,7 +17950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -18016,7 +17991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -18057,7 +18032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -18098,7 +18073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -18139,7 +18114,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -18180,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -18221,7 +18196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -18262,7 +18237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -18303,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -18344,7 +18319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -18385,7 +18360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -18426,7 +18401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -18467,7 +18442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -18508,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -18549,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -18590,7 +18565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
@@ -18631,7 +18606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -18672,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -18713,7 +18688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -18754,7 +18729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -18795,7 +18770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -18836,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -18877,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -18918,7 +18893,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -18959,7 +18934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -19000,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -19041,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -19082,7 +19057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -19123,7 +19098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -19164,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -19205,7 +19180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -19246,7 +19221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -19287,7 +19262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -19328,7 +19303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -19369,7 +19344,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -19410,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -19451,7 +19426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -19492,7 +19467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -19533,7 +19508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -19574,7 +19549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -19615,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -19670,16 +19645,16 @@
       <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="29"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>183</v>
       </c>
@@ -19691,12 +19666,12 @@
         <v>201.06175999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -19731,7 +19706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -19764,7 +19739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -19797,7 +19772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -19830,7 +19805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -19866,7 +19841,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -19902,7 +19877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -19935,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -19968,7 +19943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -20001,7 +19976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -20037,7 +20012,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -20070,7 +20045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -20106,7 +20081,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -20142,7 +20117,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -20175,7 +20150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -20210,7 +20185,7 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -20244,7 +20219,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -20278,7 +20253,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -20314,7 +20289,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -20347,7 +20322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -20380,7 +20355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -20413,7 +20388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -20450,7 +20425,7 @@
         <v>12.620000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -20484,7 +20459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -20520,7 +20495,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -20556,7 +20531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -20589,7 +20564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -20622,7 +20597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011</v>
       </c>
@@ -20655,7 +20630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -20690,7 +20665,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -20727,7 +20702,7 @@
         <v>52.260000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -20761,7 +20736,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -20796,7 +20771,7 @@
         <v>3.5100000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -20829,7 +20804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -20862,7 +20837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -20895,7 +20870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -20928,7 +20903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -20962,7 +20937,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -20995,7 +20970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -21028,7 +21003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -21061,7 +21036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -21094,7 +21069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -21127,7 +21102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -21161,7 +21136,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -21195,7 +21170,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -21229,7 +21204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -21263,7 +21238,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -21299,7 +21274,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -21336,7 +21311,7 @@
         <v>35.58</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -21369,7 +21344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -21402,7 +21377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -21436,7 +21411,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
@@ -21470,7 +21445,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -21504,7 +21479,7 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -21537,7 +21512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -21570,7 +21545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -21603,7 +21578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -21637,7 +21612,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -21670,7 +21645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -21703,7 +21678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -21738,7 +21713,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -21774,7 +21749,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -21807,7 +21782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -21841,7 +21816,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -21874,7 +21849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -21907,7 +21882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -21940,7 +21915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -21976,7 +21951,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -22011,7 +21986,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -22045,7 +22020,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -22079,7 +22054,7 @@
         <v>5.9799999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -22112,7 +22087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -22146,7 +22121,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -22179,7 +22154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -22212,7 +22187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -22245,7 +22220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -22278,7 +22253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -22312,7 +22287,7 @@
         <v>1.1700000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2011</v>
       </c>
@@ -22346,7 +22321,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2011</v>
       </c>
@@ -22379,7 +22354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -22415,7 +22390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2011</v>
       </c>
@@ -22448,7 +22423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -22481,7 +22456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2011</v>
       </c>
@@ -22517,7 +22492,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2011</v>
       </c>
@@ -22550,7 +22525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2011</v>
       </c>
@@ -22583,7 +22558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2011</v>
       </c>
@@ -22619,7 +22594,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -22666,26 +22641,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="38"/>
+    <col min="9" max="9" width="8" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -22707,17 +22683,17 @@
       <c r="G3" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="39" t="s">
         <v>211</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -22739,14 +22715,14 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -22768,17 +22744,17 @@
       <c r="G5">
         <v>16.47</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="38">
         <v>6.91</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="38">
         <v>350</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -22800,17 +22776,17 @@
       <c r="G6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="38">
         <v>16.98</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="38">
         <v>69</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -22832,17 +22808,17 @@
       <c r="G7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="38">
         <v>17.09</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="38">
         <v>70</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -22864,17 +22840,17 @@
       <c r="G8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="38">
         <v>15.65</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="38">
         <v>76</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -22896,15 +22872,15 @@
       <c r="G9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="38">
         <v>15.02</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="38">
         <v>74</v>
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -22926,17 +22902,17 @@
       <c r="G10" s="21">
         <v>11.92</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="40">
         <v>7.26</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="40">
         <v>224</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -22958,17 +22934,17 @@
       <c r="G11" s="21">
         <v>14.46</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="40">
         <v>16.12</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="40">
         <v>234</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -22990,17 +22966,17 @@
       <c r="G12" s="21">
         <v>14.67</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="40">
         <v>12.2</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="40">
         <v>290</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -23022,17 +22998,17 @@
       <c r="G13" s="21">
         <v>17.54</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="40">
         <v>17.8</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="40">
         <v>302</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -23054,17 +23030,17 @@
       <c r="G14" s="21">
         <v>6.28</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="40">
         <v>13.8</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="40">
         <v>300</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -23086,17 +23062,17 @@
       <c r="G15" s="21">
         <v>16.2</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="40">
         <v>11.11</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="40">
         <v>327</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -23118,15 +23094,15 @@
       <c r="G16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -23148,15 +23124,15 @@
       <c r="G17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -23178,15 +23154,15 @@
       <c r="G18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -23208,14 +23184,14 @@
       <c r="G19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -23237,17 +23213,17 @@
       <c r="G20" s="21">
         <v>20.190000000000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="38">
         <v>28.82</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="38">
         <v>18</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -23269,17 +23245,17 @@
       <c r="G21" s="21">
         <v>20.079999999999998</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="38">
         <v>29.53</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="38">
         <v>58</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -23301,17 +23277,17 @@
       <c r="G22" s="21">
         <v>14.59</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="38">
         <v>27.55</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="38">
         <v>48</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -23333,17 +23309,17 @@
       <c r="G23" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="38">
         <v>29.27</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="38">
         <v>65</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -23365,17 +23341,17 @@
       <c r="G24" s="21">
         <v>14.72</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="38">
         <v>16.809999999999999</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="38">
         <v>107</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -23397,15 +23373,15 @@
       <c r="G25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -23427,17 +23403,17 @@
       <c r="G26" s="21">
         <v>8.6</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="38">
         <v>9.9</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="40">
         <v>162</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -23459,17 +23435,17 @@
       <c r="G27" s="21">
         <v>7.21</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="40">
         <v>5.9</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="40">
         <v>93</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -23491,17 +23467,17 @@
       <c r="G28">
         <v>12.37</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="40">
         <v>5.5</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="40">
         <v>122</v>
       </c>
       <c r="J28" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -23523,17 +23499,17 @@
       <c r="G29" t="s">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011</v>
       </c>
@@ -23555,17 +23531,17 @@
       <c r="G30" t="s">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -23587,17 +23563,17 @@
       <c r="G31">
         <v>25.41</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="38">
         <v>12.8</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="38">
         <v>124</v>
       </c>
       <c r="J31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -23619,17 +23595,17 @@
       <c r="G32">
         <v>18.78</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="38">
         <v>13.8</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="38">
         <v>120</v>
       </c>
       <c r="J32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -23651,17 +23627,17 @@
       <c r="G33">
         <v>9.9499999999999993</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="38">
         <v>11.1</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="38">
         <v>89</v>
       </c>
       <c r="J33" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -23683,17 +23659,17 @@
       <c r="G34">
         <v>13.03</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="38">
         <v>8.33</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="38">
         <v>73</v>
       </c>
       <c r="J34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -23715,17 +23691,17 @@
       <c r="G35">
         <v>11.75</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="38">
         <v>8.06</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="38">
         <v>90</v>
       </c>
       <c r="J35" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -23747,17 +23723,17 @@
       <c r="G36" s="32">
         <v>13.25</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="38">
         <v>8.73</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="38">
         <v>101</v>
       </c>
       <c r="J36" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -23779,14 +23755,14 @@
       <c r="G37" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -23808,14 +23784,14 @@
       <c r="G38" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -23837,17 +23813,17 @@
       <c r="G39" s="21">
         <v>16.84</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="40">
         <v>16</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="40">
         <v>153</v>
       </c>
       <c r="J39" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -23869,17 +23845,17 @@
       <c r="G40" s="21">
         <v>12.41</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="40">
         <v>15.63</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="40">
         <v>151</v>
       </c>
       <c r="J40" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -23901,14 +23877,14 @@
       <c r="G41" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H41" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -23930,17 +23906,17 @@
       <c r="G42" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="40">
         <v>15.03</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="40">
         <v>230</v>
       </c>
       <c r="J42" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -23962,17 +23938,17 @@
       <c r="G43" s="21">
         <v>4.43</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="40">
         <v>16.850000000000001</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="40">
         <v>51</v>
       </c>
       <c r="J43" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -23994,17 +23970,17 @@
       <c r="G44" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="40">
         <v>12.27</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="40">
         <v>292</v>
       </c>
       <c r="J44" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -24026,14 +24002,14 @@
       <c r="G45" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="40">
         <v>6.62</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="40">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -24055,14 +24031,14 @@
       <c r="G46" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -24084,17 +24060,17 @@
       <c r="G47" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="38">
         <v>0.16</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="38">
         <v>244</v>
       </c>
       <c r="J47" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -24116,17 +24092,17 @@
       <c r="G48" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="38">
         <v>1.6</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="38">
         <v>110</v>
       </c>
       <c r="J48" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -24148,17 +24124,17 @@
       <c r="G49" s="21">
         <v>22.72</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="40">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="40">
         <v>5</v>
       </c>
       <c r="J49" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -24180,17 +24156,17 @@
       <c r="G50" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="40">
         <v>15.2</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="40">
         <v>10</v>
       </c>
       <c r="J50" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -24212,14 +24188,14 @@
       <c r="G51" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H51" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -24241,17 +24217,17 @@
       <c r="G52" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="38">
         <v>11.01</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="38">
         <v>308</v>
       </c>
       <c r="J52" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -24273,10 +24249,10 @@
       <c r="G53" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="38">
         <v>13.76</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="38">
         <v>281</v>
       </c>
       <c r="J53" s="21" t="s">
@@ -24284,7 +24260,7 @@
       </c>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
@@ -24306,17 +24282,17 @@
       <c r="G54" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="38">
         <v>13.13</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="38">
         <v>283</v>
       </c>
       <c r="J54" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -24338,17 +24314,17 @@
       <c r="G55" s="21">
         <v>11.13</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="38">
         <v>16.2</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="38">
         <v>171</v>
       </c>
       <c r="J55" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -24370,17 +24346,17 @@
       <c r="G56" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="38">
         <v>11.77</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="38">
         <v>100</v>
       </c>
       <c r="J56" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -24402,17 +24378,17 @@
       <c r="G57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="40">
         <v>14</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="40">
         <v>286</v>
       </c>
       <c r="J57" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -24434,17 +24410,17 @@
       <c r="G58" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H58" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="21"/>
     </row>
   </sheetData>
@@ -24459,30 +24435,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A54" sqref="A54:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="39.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="39.7265625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>230</v>
       </c>
@@ -24491,7 +24467,7 @@
       <c r="N1" s="9"/>
       <c r="W1" s="28"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>231</v>
       </c>
@@ -24500,7 +24476,7 @@
       <c r="N2" s="9"/>
       <c r="W2" s="28"/>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="12"/>
       <c r="E3" s="9" t="s">
         <v>232</v>
@@ -24537,7 +24513,7 @@
       <c r="T3" s="18"/>
       <c r="W3" s="28"/>
     </row>
-    <row r="4" spans="1:23" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="7" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
@@ -24608,7 +24584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -24673,7 +24649,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -24738,7 +24714,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -24803,7 +24779,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -24868,7 +24844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -24933,7 +24909,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -24995,7 +24971,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -25057,7 +25033,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -25122,7 +25098,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -25184,7 +25160,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -25249,7 +25225,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -25314,7 +25290,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -25376,7 +25352,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -25441,7 +25417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -25503,7 +25479,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -25565,7 +25541,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -25627,7 +25603,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -25689,7 +25665,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -25751,7 +25727,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -25816,7 +25792,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -25881,7 +25857,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -25946,7 +25922,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -26011,7 +25987,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -26076,7 +26052,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -26141,7 +26117,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -26206,7 +26182,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011</v>
       </c>
@@ -26271,7 +26247,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -26333,7 +26309,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011</v>
       </c>
@@ -26398,7 +26374,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -26463,7 +26439,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -26528,7 +26504,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -26593,7 +26569,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -26658,7 +26634,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -26723,7 +26699,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -26788,7 +26764,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -26853,7 +26829,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -26918,7 +26894,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -26983,7 +26959,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -27048,7 +27024,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -27113,7 +27089,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -27178,7 +27154,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -27243,7 +27219,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -27305,7 +27281,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -27370,7 +27346,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -27432,7 +27408,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -27494,7 +27470,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -27556,7 +27532,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -27621,7 +27597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -27683,7 +27659,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -27748,7 +27724,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>2011</v>
       </c>
@@ -27813,7 +27789,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>2011</v>
       </c>
@@ -27878,7 +27854,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>2011</v>
       </c>
@@ -27941,7 +27917,7 @@
       </c>
       <c r="W56" s="37"/>
     </row>
-    <row r="57" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32">
         <v>2011</v>
       </c>
@@ -28006,7 +27982,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>2011</v>
       </c>
@@ -28071,7 +28047,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -28136,7 +28112,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -28201,7 +28177,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -28263,7 +28239,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -28325,7 +28301,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -28390,7 +28366,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -28455,7 +28431,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -28520,7 +28496,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -28585,7 +28561,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -28647,7 +28623,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -28712,7 +28688,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -28777,7 +28753,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -28839,7 +28815,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -28904,7 +28880,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -28966,7 +28942,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -29028,7 +29004,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -29093,7 +29069,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -29155,7 +29131,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -29220,7 +29196,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -29285,7 +29261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B78" s="21"/>
       <c r="E78" s="23"/>
       <c r="F78" s="24"/>
@@ -29299,7 +29275,7 @@
       <c r="Q78" s="21"/>
       <c r="V78" s="21"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B79" s="21"/>
       <c r="E79" s="23"/>
       <c r="F79" s="24"/>
@@ -29313,7 +29289,7 @@
       <c r="Q79" s="21"/>
       <c r="V79" s="21"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B80" s="21"/>
       <c r="E80" s="23"/>
       <c r="F80" s="24"/>
@@ -29327,19 +29303,19 @@
       <c r="Q80" s="21"/>
       <c r="V80" s="21"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="21"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="21"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="21"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="21"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="21"/>
     </row>
   </sheetData>
@@ -29360,13 +29336,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c4dec4b6-adc0-4ae7-a610-9837ec16b1be" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6f6290a-188c-431b-bc1b-08909b9edd3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100838CD1DE87728B4A91AC01A490840121" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e42e0ab4a00fbff42e456357a99b1eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f6f6290a-188c-431b-bc1b-08909b9edd3c" xmlns:ns3="c4dec4b6-adc0-4ae7-a610-9837ec16b1be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3506e3d67b73694a3451566b24e0b38" ns2:_="" ns3:_="">
     <xsd:import namespace="f6f6290a-188c-431b-bc1b-08909b9edd3c"/>
@@ -29573,34 +29569,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c4dec4b6-adc0-4ae7-a610-9837ec16b1be" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6f6290a-188c-431b-bc1b-08909b9edd3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB64F0D-D4D7-4AAF-90C0-A2949253BFB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9418895-A9F6-4948-9719-F04CB3292A52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c4dec4b6-adc0-4ae7-a610-9837ec16b1be"/>
+    <ds:schemaRef ds:uri="f6f6290a-188c-431b-bc1b-08909b9edd3c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0B238C9-D830-418E-9A3B-EC99C6D85E15}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0B238C9-D830-418E-9A3B-EC99C6D85E15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9418895-A9F6-4948-9719-F04CB3292A52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB64F0D-D4D7-4AAF-90C0-A2949253BFB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6f6290a-188c-431b-bc1b-08909b9edd3c"/>
+    <ds:schemaRef ds:uri="c4dec4b6-adc0-4ae7-a610-9837ec16b1be"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>